--- a/Parameters/conversion_parameters.xlsx
+++ b/Parameters/conversion_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mans3904/Documents/GitHub/GEOH2-private/Parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engs1825\Documents\GitHub\GeoH2\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D70AFA-7E5E-B047-8AF2-268A0DA8727E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF469D7-CFBD-46DC-A2FE-39F25E3E7206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="14820" windowHeight="14480" activeTab="3" xr2:uid="{18B0DDC9-B74C-4E09-B886-3EB1C823232B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{18B0DDC9-B74C-4E09-B886-3EB1C823232B}"/>
   </bookViews>
   <sheets>
     <sheet name="500 bar" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="LOHC_unload" sheetId="4" r:id="rId4"/>
     <sheet name="NH3_load" sheetId="5" r:id="rId5"/>
     <sheet name="NH3_unload" sheetId="6" r:id="rId6"/>
+    <sheet name="CuAnode" sheetId="7" r:id="rId7"/>
+    <sheet name="CuCathode" sheetId="9" r:id="rId8"/>
+    <sheet name="CuConcentrate" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,8 +35,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
   <si>
     <t>Parameter</t>
   </si>
@@ -107,6 +108,21 @@
   </si>
   <si>
     <t>Carrier ratio (kg carrier: kg hydrogen)</t>
+  </si>
+  <si>
+    <t>Efficiency (kg product / kg feedstock)</t>
+  </si>
+  <si>
+    <t>Electricity demand (kWh per kg product)</t>
+  </si>
+  <si>
+    <t>Diesel demand (kWh per kg product)</t>
+  </si>
+  <si>
+    <t>Capex quadratic coefficient (euros (kg product)-2)</t>
+  </si>
+  <si>
+    <t>Capex linear coefficient (euros per kg product)</t>
   </si>
 </sst>
 </file>
@@ -122,12 +138,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -142,8 +164,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,17 +487,17 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -483,7 +506,7 @@
         <v>3.9444447600000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -491,7 +514,7 @@
         <v>298.14999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -499,7 +522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -507,7 +530,7 @@
         <v>1.4019999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -515,7 +538,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -523,7 +546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -531,7 +554,7 @@
         <v>40035</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -549,21 +572,21 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -571,7 +594,7 @@
         <v>9.93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -579,7 +602,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -587,7 +610,7 @@
         <v>1781.9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -596,7 +619,7 @@
         <v>300000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -604,7 +627,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -623,17 +646,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -641,7 +664,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -649,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -657,7 +680,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -665,7 +688,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -673,7 +696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -681,7 +704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -698,21 +721,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE59E596-5506-44A6-B32A-5A1FC3D73A2D}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -720,7 +743,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -728,7 +751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -736,7 +759,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -744,7 +767,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -765,17 +788,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -783,7 +806,7 @@
         <v>2.8090000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -791,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -799,7 +822,7 @@
         <v>0.75717000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -807,7 +830,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -828,17 +851,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -846,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -854,7 +877,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -863,7 +886,7 @@
         <v>17262449.999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -871,12 +894,277 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53823296-CF5F-4D38-9343-E0D4F93EB467}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1781.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <f>3*(100000000)</f>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B11EC6-F613-4C24-A11F-C4C45B503896}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1">
+        <f>2.92+0.91</f>
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1781.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <f>3*(100000000)</f>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29860A3-1EAB-4159-86CA-2694B512AB93}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1781.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <f>3*(100000000)</f>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters/conversion_parameters.xlsx
+++ b/Parameters/conversion_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engs1825\Documents\GitHub\GeoH2\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF469D7-CFBD-46DC-A2FE-39F25E3E7206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ACAB5A-841C-42F9-9630-EB9BB165A325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{18B0DDC9-B74C-4E09-B886-3EB1C823232B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{18B0DDC9-B74C-4E09-B886-3EB1C823232B}"/>
   </bookViews>
   <sheets>
     <sheet name="500 bar" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>Parameter</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Capex linear coefficient (euros per kg product)</t>
+  </si>
+  <si>
+    <t>Heat demand (kWh per kg product)</t>
   </si>
 </sst>
 </file>
@@ -487,17 +490,17 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -506,7 +509,7 @@
         <v>3.9444447600000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -514,7 +517,7 @@
         <v>298.14999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -522,7 +525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -530,7 +533,7 @@
         <v>1.4019999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -538,7 +541,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -546,7 +549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -554,7 +557,7 @@
         <v>40035</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -575,18 +578,18 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -594,7 +597,7 @@
         <v>9.93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -602,7 +605,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -610,7 +613,7 @@
         <v>1781.9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -619,7 +622,7 @@
         <v>300000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -627,7 +630,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -646,17 +649,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -664,7 +667,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -672,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -680,7 +683,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -688,7 +691,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -696,7 +699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -704,7 +707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -725,17 +728,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -743,7 +746,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -751,7 +754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -759,7 +762,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -767,7 +770,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -788,17 +791,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -806,7 +809,7 @@
         <v>2.8090000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -814,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -822,7 +825,7 @@
         <v>0.75717000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -830,7 +833,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -848,20 +851,20 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -869,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -877,7 +880,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -886,7 +889,7 @@
         <v>17262449.999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -894,7 +897,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -909,23 +912,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53823296-CF5F-4D38-9343-E0D4F93EB467}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -933,7 +936,7 @@
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -941,52 +944,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>1781.9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <f>3*(100000000)</f>
         <v>300000000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>0.7</v>
       </c>
     </row>
@@ -997,23 +1008,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B11EC6-F613-4C24-A11F-C4C45B503896}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1022,7 +1033,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1030,52 +1041,60 @@
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>1781.9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <f>3*(100000000)</f>
         <v>300000000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>0.5</v>
       </c>
     </row>
@@ -1086,23 +1105,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29860A3-1EAB-4159-86CA-2694B512AB93}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1110,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1118,52 +1137,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>1781.9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <f>3*(100000000)</f>
         <v>300000000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>0.3</v>
       </c>
     </row>

--- a/Parameters/conversion_parameters.xlsx
+++ b/Parameters/conversion_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engs1825\Documents\GitHub\GeoH2\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ACAB5A-841C-42F9-9630-EB9BB165A325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1E0FC1-5E14-41DE-82A1-11C80C428302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{18B0DDC9-B74C-4E09-B886-3EB1C823232B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{18B0DDC9-B74C-4E09-B886-3EB1C823232B}"/>
   </bookViews>
   <sheets>
     <sheet name="500 bar" sheetId="1" r:id="rId1"/>
@@ -167,9 +167,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,17 +491,17 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -509,7 +510,7 @@
         <v>3.9444447600000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -517,7 +518,7 @@
         <v>298.14999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -525,7 +526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -533,7 +534,7 @@
         <v>1.4019999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -541,7 +542,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -549,7 +550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -557,7 +558,7 @@
         <v>40035</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -578,18 +579,18 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -597,7 +598,7 @@
         <v>9.93</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -605,7 +606,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -613,7 +614,7 @@
         <v>1781.9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -622,7 +623,7 @@
         <v>300000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -630,7 +631,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -649,17 +650,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -667,7 +668,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -675,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -683,7 +684,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -691,7 +692,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -699,7 +700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -707,7 +708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -728,17 +729,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -746,7 +747,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -754,7 +755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -762,7 +763,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -770,7 +771,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -791,17 +792,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -809,7 +810,7 @@
         <v>2.8090000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -817,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -825,7 +826,7 @@
         <v>0.75717000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -833,7 +834,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -854,17 +855,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -872,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -880,7 +881,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -889,7 +890,7 @@
         <v>17262449.999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -897,7 +898,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -914,91 +915,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53823296-CF5F-4D38-9343-E0D4F93EB467}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="2">
+        <v>1.1597200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="2">
+        <v>0.85027777777777702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>1781.9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <f>3*(100000000)</f>
         <v>300000000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.7</v>
+      <c r="B10" s="2">
+        <f>1/3.87</f>
+        <v>0.25839793281653745</v>
       </c>
     </row>
   </sheetData>
@@ -1010,92 +1012,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B11EC6-F613-4C24-A11F-C4C45B503896}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1">
-        <f>2.92+0.91</f>
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="2">
+        <v>3.831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.61899999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="2">
+        <v>1.8387200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="2">
+        <v>1.33916689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>1781.9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
-        <f>3*(100000000)</f>
+      <c r="B7" s="2">
         <v>300000000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.5</v>
+      <c r="B10" s="2">
+        <v>0.25839793281653745</v>
       </c>
     </row>
   </sheetData>
@@ -1111,17 +1111,17 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>1781.9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>300000000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
